--- a/data/trans_dic/P16A20-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A20-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03853736089967413</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.08924430281850881</v>
+        <v>0.0892443028185088</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.004907708598896839</v>
@@ -697,7 +697,7 @@
         <v>0.02101310849037429</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0472991805436804</v>
+        <v>0.04729918054368039</v>
       </c>
     </row>
     <row r="5">
@@ -714,34 +714,34 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002166748321662827</v>
+        <v>0.002171477054466167</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.004191291061191624</v>
+        <v>0.004451700804030518</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01357161857090078</v>
+        <v>0.01366647241750624</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02215260762701698</v>
+        <v>0.02223559680166897</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06779854540834546</v>
+        <v>0.06927788727242352</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001307025469734938</v>
+        <v>0.001305791387034603</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006939653404079618</v>
+        <v>0.006930361170618958</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01256060607801343</v>
+        <v>0.01272036785589489</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03670613084418562</v>
+        <v>0.03593083274668985</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01439423208537607</v>
+        <v>0.01274443372752563</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01229294311017641</v>
+        <v>0.01564620712637561</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01790905289013191</v>
+        <v>0.01844574443060015</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02087129363955663</v>
+        <v>0.02086424726358432</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01920190828391748</v>
+        <v>0.02282395160889367</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05749866245349634</v>
+        <v>0.06008915961310575</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06220391596404906</v>
+        <v>0.06341501849044048</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1134687434195905</v>
+        <v>0.1121102529949021</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01279249671361359</v>
+        <v>0.01256779604360547</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02564901362290802</v>
+        <v>0.02672604120863434</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03380844514250421</v>
+        <v>0.03255814976035883</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06040000431935597</v>
+        <v>0.05940631005926451</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.06093815234134729</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0779285459873655</v>
+        <v>0.07792854598736551</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.006816793287674703</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002214693721207236</v>
+        <v>0.002199947742366655</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003641826587352667</v>
+        <v>0.003913677467772497</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002896337002478891</v>
+        <v>0.002621532430887534</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01548867945884828</v>
+        <v>0.01742261859600023</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03989564092066082</v>
+        <v>0.03768151659917568</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05936865035111424</v>
+        <v>0.05856673373269733</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002701662498377881</v>
+        <v>0.002564059236139743</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01028931745096445</v>
+        <v>0.009577223698374137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01969297642292472</v>
+        <v>0.01939444271067905</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03112179362978654</v>
+        <v>0.0327852770770772</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01078471287146805</v>
+        <v>0.01482157633454024</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02079201679541525</v>
+        <v>0.01979019398211504</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01218498722341407</v>
+        <v>0.01211478395302697</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02136724612196817</v>
+        <v>0.02351793300153849</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02596681179491036</v>
+        <v>0.02713405633778291</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06234929271468208</v>
+        <v>0.0632340349924967</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09316293536148972</v>
+        <v>0.0936369201326963</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1008287204821801</v>
+        <v>0.09872692839099163</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01584254662828589</v>
+        <v>0.01505728619816814</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03347536884415776</v>
+        <v>0.03187758772856764</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04773053632635418</v>
+        <v>0.05008502136485078</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05474563047749048</v>
+        <v>0.05672687678834884</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.003970970863928766</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.005160188251912582</v>
+        <v>0.005160188251912581</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.005961032813011732</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001496619242006801</v>
+        <v>0.001504994157193005</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00155756506995131</v>
+        <v>0.00155455992896992</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001647645330379601</v>
+        <v>0.001631599225036544</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007421622396522003</v>
+        <v>0.00738829844742589</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006072874699715443</v>
+        <v>0.006098113357180048</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06226716324225419</v>
+        <v>0.06289354733286563</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001400186151627161</v>
+        <v>0.001405226651162187</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.004424961765753304</v>
+        <v>0.00449289528180869</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002983357368854465</v>
+        <v>0.003834026007713244</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02016125483047441</v>
+        <v>0.02019412176523544</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01534967412264462</v>
+        <v>0.01697536750872002</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01406985466841443</v>
+        <v>0.0146922299486505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01373676584077539</v>
+        <v>0.01213027017106925</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01537890054085975</v>
+        <v>0.01518882196297717</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03378754929081568</v>
+        <v>0.0326429065840287</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04507217146025735</v>
+        <v>0.04169930016564509</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05583972910747113</v>
+        <v>0.05420630498251374</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1297413174733568</v>
+        <v>0.1288866189342471</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01259537285123263</v>
+        <v>0.01479546432392475</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01832304937278296</v>
+        <v>0.01697787240480877</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01870812794960705</v>
+        <v>0.01825381909139994</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04265810960857193</v>
+        <v>0.04285487674117099</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.005498752626300747</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01603613450310068</v>
+        <v>0.01603613450310067</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.001258557472569742</v>
@@ -1093,7 +1093,7 @@
         <v>0.04837550067401174</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08688658941139266</v>
+        <v>0.08688658941139263</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.003973419687682424</v>
@@ -1105,7 +1105,7 @@
         <v>0.02342364052331573</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04663137732067628</v>
+        <v>0.04663137732067629</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002334688260342968</v>
+        <v>0.002459944625042782</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001852996557140521</v>
+        <v>0.001979360476790833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009968771898354614</v>
+        <v>0.01035361172719777</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03261614621576642</v>
+        <v>0.0324371757004185</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0345170710227453</v>
+        <v>0.03413333506239648</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07148093972689008</v>
+        <v>0.07122643857838232</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.001911482090259277</v>
+        <v>0.001916130020608568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01322444765901146</v>
+        <v>0.01286371782310355</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01711165866128493</v>
+        <v>0.01737632031720402</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03901911414793328</v>
+        <v>0.03896004758359373</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.009920752321167979</v>
+        <v>0.01102771350349753</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.004189847293064649</v>
+        <v>0.004653627638112032</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01099139699297622</v>
+        <v>0.01198740401878946</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02477068024947313</v>
+        <v>0.02438746209924065</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.007207012874168354</v>
+        <v>0.006315455556323722</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06276102039621975</v>
+        <v>0.06308455550208633</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06478399599642359</v>
+        <v>0.06546916495855526</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1045520388786403</v>
+        <v>0.1016140416632432</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.007459340734417065</v>
+        <v>0.007796387894570004</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02615694419436542</v>
+        <v>0.02600287705553526</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03176975956286412</v>
+        <v>0.03185029147696537</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05546551118590703</v>
+        <v>0.05615827651103417</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.03155388184301332</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.05995385756274524</v>
+        <v>0.05995385756274525</v>
       </c>
     </row>
     <row r="17">
@@ -1261,31 +1261,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.008417039613505945</v>
+        <v>0.008121236313255039</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.001676803683760442</v>
+        <v>0.001657572259136085</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02186849079343641</v>
+        <v>0.02248447065723808</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04067560193077711</v>
+        <v>0.03939257510948295</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07597250575712035</v>
+        <v>0.07465869943848077</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002793988856032472</v>
+        <v>0.002158256548778247</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01388481576018422</v>
+        <v>0.01439446339523871</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02256792648611358</v>
+        <v>0.02252987388526316</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05031472264419091</v>
+        <v>0.05028043629592815</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02004009740292512</v>
+        <v>0.01688510029131056</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01003592867125995</v>
+        <v>0.00929648894132157</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0119467155294504</v>
+        <v>0.01152064682811201</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03013020247918334</v>
+        <v>0.03027309080755321</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01543219023022092</v>
+        <v>0.01590806295914606</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05071943553950863</v>
+        <v>0.04795424638593814</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07419606904932244</v>
+        <v>0.0745415835714303</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1075710868321878</v>
+        <v>0.1069429706042662</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01377109034932775</v>
+        <v>0.01284006162427024</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02987279653511634</v>
+        <v>0.03082091579795286</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04181115473148649</v>
+        <v>0.04188827244951358</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07083901034408066</v>
+        <v>0.0713390730865965</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.03218810133736251</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06724008143796059</v>
+        <v>0.06724008143796058</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.004545047084699823</v>
@@ -1394,28 +1394,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.002399090803718982</v>
+        <v>0.002428903093249629</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02161036746878815</v>
+        <v>0.02256255114106615</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02254048103222095</v>
+        <v>0.02334102071744678</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05379186832758486</v>
+        <v>0.05325565461373775</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.001965342038787487</v>
+        <v>0.001939245013571332</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01767538786360016</v>
+        <v>0.01810617892180388</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01730925222620005</v>
+        <v>0.01784589214202847</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04305499603095193</v>
+        <v>0.04305107978685024</v>
       </c>
     </row>
     <row r="21">
@@ -1429,31 +1429,31 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.06578364221562899</v>
+        <v>0.07258223172261069</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.01120924348259122</v>
+        <v>0.01125795545422415</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04587198945417555</v>
+        <v>0.04648738929499192</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04501033184995278</v>
+        <v>0.04498627387345493</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08553540752894197</v>
+        <v>0.08636439042050213</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.009170720951454703</v>
+        <v>0.009091977471616511</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03652073493801253</v>
+        <v>0.03617420219623018</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03542476842382042</v>
+        <v>0.0359149740752403</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07308258562861407</v>
+        <v>0.07269719714644264</v>
       </c>
     </row>
     <row r="22">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.002534393633338386</v>
+        <v>0.002611928663659192</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.001392014798709054</v>
+        <v>0.001364257155452978</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.002438791906123703</v>
+        <v>0.002411997552419151</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.009168929907496836</v>
+        <v>0.009218854198325598</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003467273894375783</v>
+        <v>0.003241666926749928</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02873955993531538</v>
+        <v>0.0287774897532865</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03733995249044537</v>
+        <v>0.03748871083565784</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07456544711366427</v>
+        <v>0.07502233186178306</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.00355789723720943</v>
+        <v>0.003559656511350406</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01552463672896134</v>
+        <v>0.01575056897312524</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02130670821759658</v>
+        <v>0.02118991521257864</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04427008485609065</v>
+        <v>0.04430855958219997</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.007261640020243674</v>
+        <v>0.007014526136709223</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.004913014630428119</v>
+        <v>0.004845805339890234</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.007181831719477137</v>
+        <v>0.006773925847552555</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01709577276493854</v>
+        <v>0.0170434897709676</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.00854588168859482</v>
+        <v>0.008308638915182949</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04128796742747146</v>
+        <v>0.04167258413543301</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0517946015207766</v>
+        <v>0.05143026497048463</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09036572544677071</v>
+        <v>0.09040263836285495</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.006875369879844891</v>
+        <v>0.006960540713986251</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02242269026378999</v>
+        <v>0.02234325447034346</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02880491685281513</v>
+        <v>0.02919906278911179</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05315633427003806</v>
+        <v>0.05343581976815689</v>
       </c>
     </row>
     <row r="25">
@@ -1868,34 +1868,34 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2308</v>
+        <v>2451</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4268</v>
+        <v>4297</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7688</v>
+        <v>7717</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>33114</v>
+        <v>33836</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5216</v>
+        <v>5209</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9749</v>
+        <v>9873</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>38139</v>
+        <v>37333</v>
       </c>
     </row>
     <row r="7">
@@ -1906,40 +1906,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6820</v>
+        <v>6038</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5375</v>
+        <v>6841</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7685</v>
+        <v>7915</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11492</v>
+        <v>11488</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5889</v>
+        <v>7000</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18081</v>
+        <v>18895</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21588</v>
+        <v>22008</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>55419</v>
+        <v>54756</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9984</v>
+        <v>9809</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19279</v>
+        <v>20089</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26240</v>
+        <v>25270</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>62757</v>
+        <v>61725</v>
       </c>
     </row>
     <row r="8">
@@ -2045,37 +2045,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1760</v>
+        <v>1891</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1077</v>
+        <v>975</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5194</v>
+        <v>5842</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>14852</v>
+        <v>14028</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25121</v>
+        <v>24782</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1996</v>
+        <v>1894</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>7741</v>
+        <v>7205</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>14760</v>
+        <v>14536</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>28207</v>
+        <v>29715</v>
       </c>
     </row>
     <row r="11">
@@ -2086,40 +2086,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3957</v>
+        <v>5439</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8671</v>
+        <v>8253</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4597</v>
+        <v>4570</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10325</v>
+        <v>11364</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9656</v>
+        <v>10090</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20907</v>
+        <v>21203</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34682</v>
+        <v>34858</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>42665</v>
+        <v>41776</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11704</v>
+        <v>11124</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>25185</v>
+        <v>23983</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>35774</v>
+        <v>37539</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>49619</v>
+        <v>51415</v>
       </c>
     </row>
     <row r="12">
@@ -2222,40 +2222,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11675</v>
+        <v>11792</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3927</v>
+        <v>3987</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2053</v>
+        <v>2638</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>13288</v>
+        <v>13310</v>
       </c>
     </row>
     <row r="15">
@@ -2266,40 +2266,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8325</v>
+        <v>9207</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8840</v>
+        <v>9232</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7169</v>
+        <v>6331</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7253</v>
+        <v>7163</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5669</v>
+        <v>5477</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11678</v>
+        <v>10804</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9276</v>
+        <v>9005</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24326</v>
+        <v>24166</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8945</v>
+        <v>10507</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16260</v>
+        <v>15066</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12872</v>
+        <v>12559</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>28116</v>
+        <v>28246</v>
       </c>
     </row>
     <row r="16">
@@ -2402,40 +2402,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2891</v>
+        <v>3046</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2130</v>
+        <v>2276</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11283</v>
+        <v>11719</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>24972</v>
+        <v>24835</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>28507</v>
+        <v>28190</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>61491</v>
+        <v>61272</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3732</v>
+        <v>3741</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>25430</v>
+        <v>24736</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>33804</v>
+        <v>34327</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>77729</v>
+        <v>77611</v>
       </c>
     </row>
     <row r="19">
@@ -2446,40 +2446,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12285</v>
+        <v>13656</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4849</v>
+        <v>5386</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12636</v>
+        <v>13781</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28037</v>
+        <v>27603</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5148</v>
+        <v>4511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>48053</v>
+        <v>48300</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>53504</v>
+        <v>54069</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>89940</v>
+        <v>87412</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14565</v>
+        <v>15223</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>50299</v>
+        <v>50002</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>62762</v>
+        <v>62921</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>110492</v>
+        <v>111872</v>
       </c>
     </row>
     <row r="20">
@@ -2591,31 +2591,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4772</v>
+        <v>4605</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16584</v>
+        <v>17052</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>30029</v>
+        <v>29081</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>63067</v>
+        <v>61976</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2566</v>
+        <v>1982</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>17619</v>
+        <v>18266</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>30669</v>
+        <v>30617</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>70295</v>
+        <v>70247</v>
       </c>
     </row>
     <row r="23">
@@ -2626,40 +2626,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7005</v>
+        <v>5902</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5124</v>
+        <v>4747</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7415</v>
+        <v>7151</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>17083</v>
+        <v>17164</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8777</v>
+        <v>9048</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>38464</v>
+        <v>36367</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>54775</v>
+        <v>55030</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>89298</v>
+        <v>88776</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12646</v>
+        <v>11791</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>37908</v>
+        <v>39111</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>56819</v>
+        <v>56924</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>98969</v>
+        <v>99668</v>
       </c>
     </row>
     <row r="24">
@@ -2768,28 +2768,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2996</v>
+        <v>3033</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>23906</v>
+        <v>24960</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>24389</v>
+        <v>25256</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>45307</v>
+        <v>44856</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3040</v>
+        <v>3000</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>24252</v>
+        <v>24843</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>23699</v>
+        <v>24434</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>46478</v>
+        <v>46474</v>
       </c>
     </row>
     <row r="27">
@@ -2803,31 +2803,31 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>15606</v>
+        <v>17219</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>13998</v>
+        <v>14058</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>50745</v>
+        <v>51426</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>48702</v>
+        <v>48676</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>72044</v>
+        <v>72742</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>14187</v>
+        <v>14065</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>50109</v>
+        <v>49634</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>48503</v>
+        <v>49174</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>78892</v>
+        <v>78476</v>
       </c>
     </row>
     <row r="28">
@@ -2930,40 +2930,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>8285</v>
+        <v>8539</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4756</v>
+        <v>4661</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>8257</v>
+        <v>8166</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>31555</v>
+        <v>31727</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11713</v>
+        <v>10951</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>101712</v>
+        <v>101847</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>131870</v>
+        <v>132395</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>270798</v>
+        <v>272457</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>23650</v>
+        <v>23662</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>107980</v>
+        <v>109552</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>147385</v>
+        <v>146577</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>313130</v>
+        <v>313402</v>
       </c>
     </row>
     <row r="31">
@@ -2974,40 +2974,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>23740</v>
+        <v>22932</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16784</v>
+        <v>16555</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>24316</v>
+        <v>22935</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>58835</v>
+        <v>58655</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>28869</v>
+        <v>28068</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>146123</v>
+        <v>147484</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>182918</v>
+        <v>181631</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>328180</v>
+        <v>328314</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>45703</v>
+        <v>46269</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>155959</v>
+        <v>155407</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>199253</v>
+        <v>201979</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>375984</v>
+        <v>377961</v>
       </c>
     </row>
     <row r="32">
